--- a/biology/Zoologie/Formation_de_Fox_Hills/Formation_de_Fox_Hills.xlsx
+++ b/biology/Zoologie/Formation_de_Fox_Hills/Formation_de_Fox_Hills.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Formation de Fox Hills est une formation géologique datant du Crétacé supérieur et située dans le nord-ouest des Grandes Plaines en Amérique du Nord. On la trouve de l'Alberta au nord jusqu'au Colorado, au sud.
-Des restes de fossiles de dinosaures ont été retrouvés dans la formation, même si aucun genre ne lui est particulier[1]
+Des restes de fossiles de dinosaures ont été retrouvés dans la formation, même si aucun genre ne lui est particulier
 .
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Lithologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation se compose de grès jaune avec des couches d'argiles intercalées[2]. Elle s'est formée pendant le retrait de la voie maritime intérieure de l'Ouest à la fin du Crétacé. Elle est recouverte par la Formation de Pierre aux États-Unis et par son équivalent la Formation de Bearpaw au Canada. Elle est recouverte par des sédiments continentaux, appelés Formation de Laramie aux États-Unis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation se compose de grès jaune avec des couches d'argiles intercalées. Elle s'est formée pendant le retrait de la voie maritime intérieure de l'Ouest à la fin du Crétacé. Elle est recouverte par la Formation de Pierre aux États-Unis et par son équivalent la Formation de Bearpaw au Canada. Elle est recouverte par des sédiments continentaux, appelés Formation de Laramie aux États-Unis.
 </t>
         </is>
       </c>
